--- a/Code/Results/Cases/Case_3_95/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_95/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.357766521574661</v>
+        <v>3.57734016330113</v>
       </c>
       <c r="C2">
-        <v>0.4986881548091731</v>
+        <v>0.1900693106435938</v>
       </c>
       <c r="D2">
-        <v>0.1229641717767436</v>
+        <v>0.03795911633739024</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>7.113291886715103</v>
+        <v>6.362963440239838</v>
       </c>
       <c r="G2">
-        <v>0.0008380795068341352</v>
+        <v>0.002662275072514337</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1341365420828069</v>
+        <v>0.1988445409129653</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1804297035462383</v>
+        <v>0.3795162915198773</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.947969222203653</v>
+        <v>3.519276965316749</v>
       </c>
       <c r="C3">
-        <v>0.4256155477964683</v>
+        <v>0.1746043628738505</v>
       </c>
       <c r="D3">
-        <v>0.1060743002343685</v>
+        <v>0.03323333479210078</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>6.432446569184748</v>
+        <v>6.195661185158173</v>
       </c>
       <c r="G3">
-        <v>0.0008503898425835644</v>
+        <v>0.002669449000711936</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1278970654710143</v>
+        <v>0.1973024380260995</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1647732632105487</v>
+        <v>0.3802619368313387</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.704990021313847</v>
+        <v>3.486581486025784</v>
       </c>
       <c r="C4">
-        <v>0.3819917418082355</v>
+        <v>0.1653137460002654</v>
       </c>
       <c r="D4">
-        <v>0.09596375804213153</v>
+        <v>0.03032715968228672</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>6.026937096311968</v>
+        <v>6.094701191362333</v>
       </c>
       <c r="G4">
-        <v>0.0008581029066825235</v>
+        <v>0.002674079829847691</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1242017850470525</v>
+        <v>0.1963732021675249</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1556548661321031</v>
+        <v>0.3809843144409797</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.607886721638465</v>
+        <v>3.473998879121666</v>
       </c>
       <c r="C5">
-        <v>0.364479304903881</v>
+        <v>0.1615786112528212</v>
       </c>
       <c r="D5">
-        <v>0.09189814889663239</v>
+        <v>0.02914147345811102</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.864420858754045</v>
+        <v>6.0539951080126</v>
       </c>
       <c r="G5">
-        <v>0.0008612886121226473</v>
+        <v>0.002676023983039921</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1227256549842863</v>
+        <v>0.1959988655154881</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.152052032392497</v>
+        <v>0.3813452209927704</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.591871276170934</v>
+        <v>3.471954244787923</v>
       </c>
       <c r="C6">
-        <v>0.3615860621798959</v>
+        <v>0.1609614481247377</v>
       </c>
       <c r="D6">
-        <v>0.09122605544473572</v>
+        <v>0.028944499314008</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.83758876097869</v>
+        <v>6.047261999480043</v>
       </c>
       <c r="G6">
-        <v>0.00086182026893343</v>
+        <v>0.002676350260563832</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1224822198904469</v>
+        <v>0.1959369661855739</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1514602991927987</v>
+        <v>0.3814091679742191</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.703673029649394</v>
+        <v>3.486408794771762</v>
       </c>
       <c r="C7">
-        <v>0.3817545509133424</v>
+        <v>0.1652631675722489</v>
       </c>
       <c r="D7">
-        <v>0.09590872055053978</v>
+        <v>0.03031117509718229</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>6.024734804766609</v>
+        <v>6.094150459928045</v>
       </c>
       <c r="G7">
-        <v>0.0008581456931768816</v>
+        <v>0.002674105817879153</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1241817625734782</v>
+        <v>0.1963681363092959</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1556058337296591</v>
+        <v>0.3809889123500625</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.214509837703929</v>
+        <v>3.55670520511535</v>
       </c>
       <c r="C8">
-        <v>0.4732040135441764</v>
+        <v>0.1846940566226181</v>
       </c>
       <c r="D8">
-        <v>0.1170796913781942</v>
+        <v>0.03633044936468366</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.875668222590178</v>
+        <v>6.304906735861579</v>
       </c>
       <c r="G8">
-        <v>0.0008422944231790915</v>
+        <v>0.002664701868473273</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1319541729763145</v>
+        <v>0.1983091076847714</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1749213868567949</v>
+        <v>0.3797184856477003</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.298326176609692</v>
+        <v>3.718121456510914</v>
       </c>
       <c r="C9">
-        <v>0.6649127837236506</v>
+        <v>0.2244566125889094</v>
       </c>
       <c r="D9">
-        <v>0.1612201158088737</v>
+        <v>0.04811044471854586</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.665495471190098</v>
+        <v>6.732569993043739</v>
       </c>
       <c r="G9">
-        <v>0.0008122431597162613</v>
+        <v>0.002648043904094772</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1485021967297229</v>
+        <v>0.2022597357078055</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2173202775676799</v>
+        <v>0.3793267011677273</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.166968017913746</v>
+        <v>3.851264216054801</v>
       </c>
       <c r="C10">
-        <v>0.8174816646840952</v>
+        <v>0.2547305862863709</v>
       </c>
       <c r="D10">
-        <v>0.1961727269014801</v>
+        <v>0.0567682092968198</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.08991292689723</v>
+        <v>7.056086106862097</v>
       </c>
       <c r="G10">
-        <v>0.000790479282109092</v>
+        <v>0.002636878142887692</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1618322065449149</v>
+        <v>0.2052569247861484</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.252210773683899</v>
+        <v>0.380320642572002</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.584086690550293</v>
+        <v>3.915036812405901</v>
       </c>
       <c r="C11">
-        <v>0.8906112753451794</v>
+        <v>0.2687444050382055</v>
       </c>
       <c r="D11">
-        <v>0.2128778620162279</v>
+        <v>0.0607113467977598</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.77152889691672</v>
+        <v>7.205406551331407</v>
       </c>
       <c r="G11">
-        <v>0.0007805596758145711</v>
+        <v>0.002632028456622893</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1682552634361159</v>
+        <v>0.2066424449387796</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2691702655422716</v>
+        <v>0.3810517236369435</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.745846103275881</v>
+        <v>3.939650013702533</v>
       </c>
       <c r="C12">
-        <v>0.9189625935273966</v>
+        <v>0.2740867443575326</v>
       </c>
       <c r="D12">
-        <v>0.2193460079475074</v>
+        <v>0.06220548396885306</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.03549327684834</v>
+        <v>7.262269135165582</v>
       </c>
       <c r="G12">
-        <v>0.0007767916677095634</v>
+        <v>0.002630224797699286</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1707499627718008</v>
+        <v>0.2071703960006488</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2757773226927895</v>
+        <v>0.3813687173037152</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.710827350432737</v>
+        <v>3.934328439335502</v>
       </c>
       <c r="C13">
-        <v>0.9128250944363288</v>
+        <v>0.2729345791649109</v>
       </c>
       <c r="D13">
-        <v>0.2179461695559297</v>
+        <v>0.06188364769623433</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>10.97836528845926</v>
+        <v>7.250008467674206</v>
       </c>
       <c r="G13">
-        <v>0.0007776038559009775</v>
+        <v>0.00263061179228119</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1702097132354794</v>
+        <v>0.2070565444565204</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2743456373598434</v>
+        <v>0.3812986607110247</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.597314293230681</v>
+        <v>3.91705244044573</v>
       </c>
       <c r="C14">
-        <v>0.8929297566506591</v>
+        <v>0.2691832041338955</v>
       </c>
       <c r="D14">
-        <v>0.2134069780279617</v>
+        <v>0.06083424955237149</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.79312161894694</v>
+        <v>7.210078242697421</v>
       </c>
       <c r="G14">
-        <v>0.000780249970972165</v>
+        <v>0.002631879411971607</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1684591832906506</v>
+        <v>0.2066858133311484</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2697099435696941</v>
+        <v>0.3810769980017312</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.528301279014102</v>
+        <v>3.906530896865092</v>
       </c>
       <c r="C15">
-        <v>0.8808331613279847</v>
+        <v>0.266890040397584</v>
       </c>
       <c r="D15">
-        <v>0.2106459973586539</v>
+        <v>0.06019159594877976</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.68044998846722</v>
+        <v>7.185661526320359</v>
       </c>
       <c r="G15">
-        <v>0.0007818689783775314</v>
+        <v>0.002632660132804537</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1673954193579661</v>
+        <v>0.2064591608324022</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.266895464297491</v>
+        <v>0.3809464530630038</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.140202811853783</v>
+        <v>3.847161278044155</v>
       </c>
       <c r="C16">
-        <v>0.8127873891955346</v>
+        <v>0.253819689062027</v>
       </c>
       <c r="D16">
-        <v>0.1950993564655619</v>
+        <v>0.05651063430813963</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.04612695768768</v>
+        <v>7.046371705154286</v>
       </c>
       <c r="G16">
-        <v>0.00079112644300805</v>
+        <v>0.002637199684560922</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1614205465447469</v>
+        <v>0.2051668314540649</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.251126624954324</v>
+        <v>0.3802784807215289</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.908165279528987</v>
+        <v>3.811562977928986</v>
       </c>
       <c r="C17">
-        <v>0.7720776097816611</v>
+        <v>0.2458640098596732</v>
       </c>
       <c r="D17">
-        <v>0.1857854823175842</v>
+        <v>0.05425388255082453</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.666269150415985</v>
+        <v>6.961479146624782</v>
       </c>
       <c r="G17">
-        <v>0.000796794874013745</v>
+        <v>0.002640043224967079</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1578541844598362</v>
+        <v>0.2043797625358508</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2417500869107698</v>
+        <v>0.3799401682656196</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.776725955605741</v>
+        <v>3.791389288161383</v>
       </c>
       <c r="C18">
-        <v>0.7490043991753623</v>
+        <v>0.2413108457389797</v>
       </c>
       <c r="D18">
-        <v>0.1805023050052341</v>
+        <v>0.05295628167309019</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.450880691502647</v>
+        <v>6.912853151307019</v>
       </c>
       <c r="G18">
-        <v>0.0008000540299738681</v>
+        <v>0.002641700384955934</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1558359601237669</v>
+        <v>0.2039291333347819</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2364573289113281</v>
+        <v>0.3797718315754111</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.732552537065999</v>
+        <v>3.784610519140699</v>
       </c>
       <c r="C19">
-        <v>0.741247587120597</v>
+        <v>0.2397731026617009</v>
       </c>
       <c r="D19">
-        <v>0.1787254807381373</v>
+        <v>0.05251700036967577</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.378457724442342</v>
+        <v>6.896423645255226</v>
       </c>
       <c r="G19">
-        <v>0.0008011575669416167</v>
+        <v>0.002642265192613837</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1551580053899855</v>
+        <v>0.2037769106058249</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2346817526893119</v>
+        <v>0.3797193433300237</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.932652464352714</v>
+        <v>3.815321251268529</v>
       </c>
       <c r="C20">
-        <v>0.7763750294383271</v>
+        <v>0.2467085470322559</v>
       </c>
       <c r="D20">
-        <v>0.1867691342062869</v>
+        <v>0.0544940717963982</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.706378536753647</v>
+        <v>6.970495139038377</v>
       </c>
       <c r="G20">
-        <v>0.0007961916407805986</v>
+        <v>0.002639738288164311</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1582303374448699</v>
+        <v>0.2044633321341962</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2427376579244793</v>
+        <v>0.3799734649926592</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.630546741133401</v>
+        <v>3.922114205492619</v>
       </c>
       <c r="C21">
-        <v>0.8987545129971579</v>
+        <v>0.2702841009359247</v>
       </c>
       <c r="D21">
-        <v>0.2147361495442652</v>
+        <v>0.06114245498466175</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.84736430186643</v>
+        <v>7.221798011650208</v>
       </c>
       <c r="G21">
-        <v>0.0007794731391923548</v>
+        <v>0.002631506192584809</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1689715654910131</v>
+        <v>0.2067946160283327</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.271066286548475</v>
+        <v>0.3811410157331494</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.109244726940005</v>
+        <v>3.994615029568536</v>
       </c>
       <c r="C22">
-        <v>0.9826532647891213</v>
+        <v>0.2859000414834156</v>
       </c>
       <c r="D22">
-        <v>0.233859921657583</v>
+        <v>0.06549326753861351</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.62779491677639</v>
+        <v>7.387897710177469</v>
       </c>
       <c r="G22">
-        <v>0.0007684731117334291</v>
+        <v>0.002626317197578915</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1763621227418355</v>
+        <v>0.208337441969519</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2906758802083118</v>
+        <v>0.382138120269417</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.851438551467822</v>
+        <v>3.955671407517684</v>
       </c>
       <c r="C23">
-        <v>0.9374687874996539</v>
+        <v>0.2775462206184613</v>
       </c>
       <c r="D23">
-        <v>0.2235655989064895</v>
+        <v>0.06317053985550558</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.20769677111974</v>
+        <v>7.299074150663614</v>
       </c>
       <c r="G23">
-        <v>0.0007743541928720101</v>
+        <v>0.00262906924226432</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1723795852948911</v>
+        <v>0.2075122137681689</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2800986773705887</v>
+        <v>0.3815845173030255</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.921575743513642</v>
+        <v>3.813621225831412</v>
       </c>
       <c r="C24">
-        <v>0.7744311427670993</v>
+        <v>0.2463266674806448</v>
       </c>
       <c r="D24">
-        <v>0.186324204433717</v>
+        <v>0.05438548277155064</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.688235822530999</v>
+        <v>6.966418449285783</v>
       </c>
       <c r="G24">
-        <v>0.0007964643611287306</v>
+        <v>0.002639876080222522</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1580601794040177</v>
+        <v>0.20442554451094</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2422908740849437</v>
+        <v>0.3799583300513945</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.994252377145187</v>
+        <v>3.671912626523863</v>
       </c>
       <c r="C25">
-        <v>0.6113367521819839</v>
+        <v>0.2135171956242345</v>
       </c>
       <c r="D25">
-        <v>0.1489115810825012</v>
+        <v>0.04492439081640498</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>8.164992534920742</v>
+        <v>6.61528074887363</v>
       </c>
       <c r="G25">
-        <v>0.0008202918145863918</v>
+        <v>0.002652360896223406</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1438504535887262</v>
+        <v>0.2011748467198728</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2052743041563332</v>
+        <v>0.3792077510134959</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_95/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_95/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.57734016330113</v>
+        <v>3.357766521574774</v>
       </c>
       <c r="C2">
-        <v>0.1900693106435938</v>
+        <v>0.4986881548088604</v>
       </c>
       <c r="D2">
-        <v>0.03795911633739024</v>
+        <v>0.1229641717769994</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.362963440239838</v>
+        <v>7.113291886715103</v>
       </c>
       <c r="G2">
-        <v>0.002662275072514337</v>
+        <v>0.0008380795067371603</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1988445409129653</v>
+        <v>0.1341365420826079</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3795162915198773</v>
+        <v>0.1804297035461531</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.519276965316749</v>
+        <v>2.947969222203596</v>
       </c>
       <c r="C3">
-        <v>0.1746043628738505</v>
+        <v>0.4256155477964114</v>
       </c>
       <c r="D3">
-        <v>0.03323333479210078</v>
+        <v>0.1060743002341411</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>6.195661185158173</v>
+        <v>6.432446569184776</v>
       </c>
       <c r="G3">
-        <v>0.002669449000711936</v>
+        <v>0.0008503898426770757</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1973024380260995</v>
+        <v>0.1278970654711173</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3802619368313387</v>
+        <v>0.1647732632107548</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.486581486025784</v>
+        <v>2.704990021313904</v>
       </c>
       <c r="C4">
-        <v>0.1653137460002654</v>
+        <v>0.3819917418082639</v>
       </c>
       <c r="D4">
-        <v>0.03032715968228672</v>
+        <v>0.09596375804154889</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>6.094701191362333</v>
+        <v>6.026937096311968</v>
       </c>
       <c r="G4">
-        <v>0.002674079829847691</v>
+        <v>0.0008581029066335292</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1963732021675249</v>
+        <v>0.1242017850470631</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3809843144409797</v>
+        <v>0.1556548661321386</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.473998879121666</v>
+        <v>2.607886721638351</v>
       </c>
       <c r="C5">
-        <v>0.1615786112528212</v>
+        <v>0.3644793049043358</v>
       </c>
       <c r="D5">
-        <v>0.02914147345811102</v>
+        <v>0.0918981488966466</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>6.0539951080126</v>
+        <v>5.864420858754102</v>
       </c>
       <c r="G5">
-        <v>0.002676023983039921</v>
+        <v>0.0008612886121727547</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1959988655154881</v>
+        <v>0.122725654984464</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3813452209927704</v>
+        <v>0.152052032392497</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.471954244787923</v>
+        <v>2.591871276171048</v>
       </c>
       <c r="C6">
-        <v>0.1609614481247377</v>
+        <v>0.361586062179839</v>
       </c>
       <c r="D6">
-        <v>0.028944499314008</v>
+        <v>0.09122605544450835</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>6.047261999480043</v>
+        <v>5.837588760978747</v>
       </c>
       <c r="G6">
-        <v>0.002676350260563832</v>
+        <v>0.000861820268835073</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1959369661855739</v>
+        <v>0.1224822198902267</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3814091679742191</v>
+        <v>0.1514602991928768</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.486408794771762</v>
+        <v>2.703673029649224</v>
       </c>
       <c r="C7">
-        <v>0.1652631675722489</v>
+        <v>0.3817545509124045</v>
       </c>
       <c r="D7">
-        <v>0.03031117509718229</v>
+        <v>0.09590872055075295</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>6.094150459928045</v>
+        <v>6.024734804766609</v>
       </c>
       <c r="G7">
-        <v>0.002674105817879153</v>
+        <v>0.0008581456931105434</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1963681363092959</v>
+        <v>0.1241817625735138</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3809889123500625</v>
+        <v>0.155605833729517</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.55670520511535</v>
+        <v>3.214509837704156</v>
       </c>
       <c r="C8">
-        <v>0.1846940566226181</v>
+        <v>0.4732040135442617</v>
       </c>
       <c r="D8">
-        <v>0.03633044936468366</v>
+        <v>0.1170796913782226</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.304906735861579</v>
+        <v>6.875668222590178</v>
       </c>
       <c r="G8">
-        <v>0.002664701868473273</v>
+        <v>0.0008422944231930265</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1983091076847714</v>
+        <v>0.1319541729763714</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3797184856477003</v>
+        <v>0.1749213868569726</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.718121456510914</v>
+        <v>4.298326176609805</v>
       </c>
       <c r="C9">
-        <v>0.2244566125889094</v>
+        <v>0.6649127837227979</v>
       </c>
       <c r="D9">
-        <v>0.04811044471854586</v>
+        <v>0.1612201158088595</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>6.732569993043739</v>
+        <v>8.665495471190184</v>
       </c>
       <c r="G9">
-        <v>0.002648043904094772</v>
+        <v>0.0008122431598317739</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2022597357078055</v>
+        <v>0.1485021967296163</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3793267011677273</v>
+        <v>0.2173202775677936</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.851264216054801</v>
+        <v>5.166968017914087</v>
       </c>
       <c r="C10">
-        <v>0.2547305862863709</v>
+        <v>0.8174816646844647</v>
       </c>
       <c r="D10">
-        <v>0.0567682092968198</v>
+        <v>0.1961727269014233</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>7.056086106862097</v>
+        <v>10.08991292689726</v>
       </c>
       <c r="G10">
-        <v>0.002636878142887692</v>
+        <v>0.0007904792820991</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2052569247861484</v>
+        <v>0.1618322065449078</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.380320642572002</v>
+        <v>0.2522107736837711</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.915036812405901</v>
+        <v>5.584086690550237</v>
       </c>
       <c r="C11">
-        <v>0.2687444050382055</v>
+        <v>0.8906112753446962</v>
       </c>
       <c r="D11">
-        <v>0.0607113467977598</v>
+        <v>0.2128778620159864</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>7.205406551331407</v>
+        <v>10.77152889691666</v>
       </c>
       <c r="G11">
-        <v>0.002632028456622893</v>
+        <v>0.0007805596759202921</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2066424449387796</v>
+        <v>0.1682552634361656</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3810517236369435</v>
+        <v>0.2691702655422148</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.939650013702533</v>
+        <v>5.74584610327571</v>
       </c>
       <c r="C12">
-        <v>0.2740867443575326</v>
+        <v>0.9189625935278229</v>
       </c>
       <c r="D12">
-        <v>0.06220548396885306</v>
+        <v>0.2193460079477205</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>7.262269135165582</v>
+        <v>11.03549327684834</v>
       </c>
       <c r="G12">
-        <v>0.002630224797699286</v>
+        <v>0.0007767916679427042</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2071703960006488</v>
+        <v>0.1707499627715592</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3813687173037152</v>
+        <v>0.275777322692548</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.934328439335502</v>
+        <v>5.710827350433021</v>
       </c>
       <c r="C13">
-        <v>0.2729345791649109</v>
+        <v>0.9128250944363003</v>
       </c>
       <c r="D13">
-        <v>0.06188364769623433</v>
+        <v>0.2179461695557308</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>7.250008467674206</v>
+        <v>10.97836528845932</v>
       </c>
       <c r="G13">
-        <v>0.00263061179228119</v>
+        <v>0.0007776038559013651</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2070565444565204</v>
+        <v>0.1702097132356073</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3812986607110247</v>
+        <v>0.2743456373598434</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.91705244044573</v>
+        <v>5.597314293230568</v>
       </c>
       <c r="C14">
-        <v>0.2691832041338955</v>
+        <v>0.8929297566506875</v>
       </c>
       <c r="D14">
-        <v>0.06083424955237149</v>
+        <v>0.2134069780274785</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>7.210078242697421</v>
+        <v>10.79312161894688</v>
       </c>
       <c r="G14">
-        <v>0.002631879411971607</v>
+        <v>0.0007802499708463896</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2066858133311484</v>
+        <v>0.1684591832907074</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3810769980017312</v>
+        <v>0.2697099435696657</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.906530896865092</v>
+        <v>5.528301279014386</v>
       </c>
       <c r="C15">
-        <v>0.266890040397584</v>
+        <v>0.8808331613275016</v>
       </c>
       <c r="D15">
-        <v>0.06019159594877976</v>
+        <v>0.2106459973586965</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>7.185661526320359</v>
+        <v>10.68044998846733</v>
       </c>
       <c r="G15">
-        <v>0.002632660132804537</v>
+        <v>0.0007818689783805986</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2064591608324022</v>
+        <v>0.16739541935803</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3809464530630038</v>
+        <v>0.2668954642975194</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.847161278044155</v>
+        <v>5.140202811853783</v>
       </c>
       <c r="C16">
-        <v>0.253819689062027</v>
+        <v>0.8127873891964441</v>
       </c>
       <c r="D16">
-        <v>0.05651063430813963</v>
+        <v>0.1950993564653061</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>7.046371705154286</v>
+        <v>10.04612695768768</v>
       </c>
       <c r="G16">
-        <v>0.002637199684560922</v>
+        <v>0.0007911264430034096</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2051668314540649</v>
+        <v>0.1614205465447185</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3802784807215289</v>
+        <v>0.251126624954523</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.811562977928986</v>
+        <v>4.908165279529101</v>
       </c>
       <c r="C17">
-        <v>0.2458640098596732</v>
+        <v>0.7720776097812063</v>
       </c>
       <c r="D17">
-        <v>0.05425388255082453</v>
+        <v>0.1857854823175273</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>6.961479146624782</v>
+        <v>9.666269150415985</v>
       </c>
       <c r="G17">
-        <v>0.002640043224967079</v>
+        <v>0.0007967948738871796</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2043797625358508</v>
+        <v>0.1578541844598362</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3799401682656196</v>
+        <v>0.2417500869106419</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.791389288161383</v>
+        <v>4.776725955605912</v>
       </c>
       <c r="C18">
-        <v>0.2413108457389797</v>
+        <v>0.7490043991762434</v>
       </c>
       <c r="D18">
-        <v>0.05295628167309019</v>
+        <v>0.1805023050051773</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>6.912853151307019</v>
+        <v>9.450880691502704</v>
       </c>
       <c r="G18">
-        <v>0.002641700384955934</v>
+        <v>0.0008000540298544779</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2039291333347819</v>
+        <v>0.1558359601238166</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3797718315754111</v>
+        <v>0.2364573289113849</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.784610519140699</v>
+        <v>4.732552537066113</v>
       </c>
       <c r="C19">
-        <v>0.2397731026617009</v>
+        <v>0.741247587120597</v>
       </c>
       <c r="D19">
-        <v>0.05251700036967577</v>
+        <v>0.1787254807378815</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>6.896423645255226</v>
+        <v>9.378457724442342</v>
       </c>
       <c r="G19">
-        <v>0.002642265192613837</v>
+        <v>0.0008011575670499038</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2037769106058249</v>
+        <v>0.1551580053898221</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3797193433300237</v>
+        <v>0.2346817526891414</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.815321251268529</v>
+        <v>4.932652464352486</v>
       </c>
       <c r="C20">
-        <v>0.2467085470322559</v>
+        <v>0.7763750294378724</v>
       </c>
       <c r="D20">
-        <v>0.0544940717963982</v>
+        <v>0.186769134205548</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>6.970495139038377</v>
+        <v>9.706378536753704</v>
       </c>
       <c r="G20">
-        <v>0.002639738288164311</v>
+        <v>0.000796191640998198</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2044633321341962</v>
+        <v>0.1582303374447349</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3799734649926592</v>
+        <v>0.2427376579245788</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.922114205492619</v>
+        <v>5.630546741133514</v>
       </c>
       <c r="C21">
-        <v>0.2702841009359247</v>
+        <v>0.8987545129976411</v>
       </c>
       <c r="D21">
-        <v>0.06114245498466175</v>
+        <v>0.2147361495440947</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>7.221798011650208</v>
+        <v>10.84736430186632</v>
       </c>
       <c r="G21">
-        <v>0.002631506192584809</v>
+        <v>0.000779473139322733</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2067946160283327</v>
+        <v>0.1689715654911055</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3811410157331494</v>
+        <v>0.2710662865484892</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.994615029568536</v>
+        <v>6.109244726940346</v>
       </c>
       <c r="C22">
-        <v>0.2859000414834156</v>
+        <v>0.9826532647896329</v>
       </c>
       <c r="D22">
-        <v>0.06549326753861351</v>
+        <v>0.2338599216577961</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>7.387897710177469</v>
+        <v>11.62779491677645</v>
       </c>
       <c r="G22">
-        <v>0.002626317197578915</v>
+        <v>0.0007684731118567008</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.208337441969519</v>
+        <v>0.1763621227416792</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.382138120269417</v>
+        <v>0.2906758802081839</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.955671407517684</v>
+        <v>5.851438551467879</v>
       </c>
       <c r="C23">
-        <v>0.2775462206184613</v>
+        <v>0.9374687874993128</v>
       </c>
       <c r="D23">
-        <v>0.06317053985550558</v>
+        <v>0.2235655989063048</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>7.299074150663614</v>
+        <v>11.20769677111963</v>
       </c>
       <c r="G23">
-        <v>0.00262906924226432</v>
+        <v>0.0007743541926421955</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2075122137681689</v>
+        <v>0.1723795852949621</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3815845173030255</v>
+        <v>0.2800986773704324</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.813621225831412</v>
+        <v>4.921575743513756</v>
       </c>
       <c r="C24">
-        <v>0.2463266674806448</v>
+        <v>0.7744311427674972</v>
       </c>
       <c r="D24">
-        <v>0.05438548277155064</v>
+        <v>0.1863242044336602</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>6.966418449285783</v>
+        <v>9.688235822531169</v>
       </c>
       <c r="G24">
-        <v>0.002639876080222522</v>
+        <v>0.0007964643608918395</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.20442554451094</v>
+        <v>0.1580601794039893</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3799583300513945</v>
+        <v>0.2422908740848158</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.671912626523863</v>
+        <v>3.994252377145017</v>
       </c>
       <c r="C25">
-        <v>0.2135171956242345</v>
+        <v>0.6113367521819555</v>
       </c>
       <c r="D25">
-        <v>0.04492439081640498</v>
+        <v>0.1489115810824302</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>6.61528074887363</v>
+        <v>8.164992534920771</v>
       </c>
       <c r="G25">
-        <v>0.002652360896223406</v>
+        <v>0.0008202918146806226</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2011748467198728</v>
+        <v>0.1438504535889251</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3792077510134959</v>
+        <v>0.205274304156319</v>
       </c>
       <c r="M25">
         <v>0</v>
